--- a/DS/Attendance.xlsx
+++ b/DS/Attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\21Club_Sept_CW1\DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113C7FFA-933C-41E1-88CD-B4C1B0AB08AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB9A704-BB0A-4749-91AC-CD3869E5A43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="9">
   <si>
     <t>Vedant</t>
   </si>
@@ -370,15 +370,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>45437</v>
       </c>
@@ -391,8 +391,17 @@
       <c r="E1" s="1">
         <v>45445</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1">
+        <v>45458</v>
+      </c>
+      <c r="G1" s="1">
+        <v>45459</v>
+      </c>
+      <c r="H1" s="1">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -408,8 +417,17 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -425,8 +443,17 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -442,8 +469,17 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -459,8 +495,17 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -476,8 +521,17 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -491,6 +545,15 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
         <v>7</v>
       </c>
     </row>

--- a/DS/Attendance.xlsx
+++ b/DS/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\21Club_Sept_CW1\DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB9A704-BB0A-4749-91AC-CD3869E5A43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27595025-0906-46C1-91CA-EB02BFEABE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
   <si>
     <t>Vedant</t>
   </si>
@@ -370,15 +370,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>45437</v>
       </c>
@@ -400,8 +400,11 @@
       <c r="H1" s="1">
         <v>45465</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1">
+        <v>45466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -426,8 +429,11 @@
       <c r="H2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -452,8 +458,11 @@
       <c r="H3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -478,8 +487,11 @@
       <c r="H4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -504,8 +516,11 @@
       <c r="H5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -530,8 +545,11 @@
       <c r="H6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -554,6 +572,9 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
         <v>7</v>
       </c>
     </row>

--- a/DS/Attendance.xlsx
+++ b/DS/Attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\21Club_Sept_CW1\DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27595025-0906-46C1-91CA-EB02BFEABE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989BD1F1-BBBF-47DE-8511-0B170BCE1D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="9">
   <si>
     <t>Vedant</t>
   </si>
@@ -45,13 +45,13 @@
     <t>A</t>
   </si>
   <si>
-    <t>Parshwa</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -370,15 +370,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>45437</v>
       </c>
@@ -403,45 +403,111 @@
       <c r="I1" s="1">
         <v>45466</v>
       </c>
+      <c r="J1" s="1">
+        <v>45479</v>
+      </c>
+      <c r="K1" s="1">
+        <v>45480</v>
+      </c>
+      <c r="L1" s="1">
+        <v>45486</v>
+      </c>
+      <c r="M1" s="1">
+        <v>45487</v>
+      </c>
+      <c r="N1" s="1">
+        <v>45493</v>
+      </c>
+      <c r="O1" s="1">
+        <v>45494</v>
+      </c>
+      <c r="P1" s="1">
+        <v>45501</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>45507</v>
+      </c>
+      <c r="R1" s="1">
+        <v>45514</v>
+      </c>
+      <c r="S1" s="1">
+        <v>45521</v>
+      </c>
+      <c r="T1" s="1">
+        <v>45522</v>
+      </c>
+      <c r="U1" s="1">
+        <v>45528</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
+      <c r="S2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -450,137 +516,228 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="U4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D7">
-    <sortCondition ref="A2:A7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
+    <sortCondition ref="A2:A6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DS/Attendance.xlsx
+++ b/DS/Attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\21Club_Sept_CW1\DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989BD1F1-BBBF-47DE-8511-0B170BCE1D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945304AC-97D5-4677-A031-CABCF8F91CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="10">
   <si>
     <t>Vedant</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Prachi Sathwara</t>
   </si>
 </sst>
 </file>
@@ -370,15 +373,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="5.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>45437</v>
       </c>
@@ -439,8 +453,17 @@
       <c r="U1" s="1">
         <v>45528</v>
       </c>
+      <c r="V1" s="1">
+        <v>45535</v>
+      </c>
+      <c r="W1" s="1">
+        <v>45536</v>
+      </c>
+      <c r="X1" s="1">
+        <v>45542</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -498,8 +521,17 @@
       <c r="U2" t="s">
         <v>8</v>
       </c>
+      <c r="V2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -557,8 +589,17 @@
       <c r="U3" t="s">
         <v>7</v>
       </c>
+      <c r="V3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -616,8 +657,17 @@
       <c r="U4" t="s">
         <v>8</v>
       </c>
+      <c r="V4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" t="s">
+        <v>8</v>
+      </c>
+      <c r="X4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -675,8 +725,17 @@
       <c r="U5" t="s">
         <v>5</v>
       </c>
+      <c r="V5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -732,6 +791,29 @@
         <v>7</v>
       </c>
       <c r="U6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X7" t="s">
         <v>7</v>
       </c>
     </row>

--- a/DS/Attendance.xlsx
+++ b/DS/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\21Club_Sept_CW1\DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945304AC-97D5-4677-A031-CABCF8F91CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25121C3-1463-4430-B5C1-EDDA0B5BB27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="10">
   <si>
     <t>Vedant</t>
   </si>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -389,10 +389,10 @@
     <col min="12" max="16" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>45437</v>
       </c>
@@ -462,8 +462,14 @@
       <c r="X1" s="1">
         <v>45542</v>
       </c>
+      <c r="Y1" s="1">
+        <v>45543</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>45549</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -530,8 +536,14 @@
       <c r="X2" t="s">
         <v>8</v>
       </c>
+      <c r="Y2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -598,8 +610,14 @@
       <c r="X3" t="s">
         <v>6</v>
       </c>
+      <c r="Y3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -666,8 +684,14 @@
       <c r="X4" t="s">
         <v>8</v>
       </c>
+      <c r="Y4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -734,8 +758,14 @@
       <c r="X5" t="s">
         <v>6</v>
       </c>
+      <c r="Y5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -802,8 +832,14 @@
       <c r="X6" t="s">
         <v>7</v>
       </c>
+      <c r="Y6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -815,6 +851,12 @@
       </c>
       <c r="X7" t="s">
         <v>7</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/DS/Attendance.xlsx
+++ b/DS/Attendance.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\21Club_Sept_CW1\DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25121C3-1463-4430-B5C1-EDDA0B5BB27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EE3E04-1D1A-446F-8313-51BE4493192E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="11">
   <si>
     <t>Vedant</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Prachi Sathwara</t>
+  </si>
+  <si>
+    <t>Total Lectures conducted after 20 July</t>
   </si>
 </sst>
 </file>
@@ -373,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,9 +393,10 @@
     <col min="17" max="17" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>45437</v>
       </c>
@@ -468,8 +472,17 @@
       <c r="Z1" s="1">
         <v>45549</v>
       </c>
+      <c r="AA1" s="1">
+        <v>45550</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>45556</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>45557</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -542,8 +555,17 @@
       <c r="Z2" t="s">
         <v>8</v>
       </c>
+      <c r="AA2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -616,8 +638,17 @@
       <c r="Z3" t="s">
         <v>6</v>
       </c>
+      <c r="AA3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -690,8 +721,17 @@
       <c r="Z4" t="s">
         <v>8</v>
       </c>
+      <c r="AA4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -764,8 +804,17 @@
       <c r="Z5" t="s">
         <v>5</v>
       </c>
+      <c r="AA5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -838,8 +887,14 @@
       <c r="Z6" t="s">
         <v>6</v>
       </c>
+      <c r="AA6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -857,6 +912,25 @@
       </c>
       <c r="Z7" t="s">
         <v>6</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
